--- a/домаш 16.06.xlsx
+++ b/домаш 16.06.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Любаня\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Любаня\Documents\GitHub\last_fish\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="124">
   <si>
     <t>passed</t>
   </si>
@@ -956,6 +956,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -964,27 +985,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,10 +1382,10 @@
   <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1429,7 +1429,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$43,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1474,7 +1474,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$43,"passed")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1601,43 +1601,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="38" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="38" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="31"/>
+      <c r="P6" s="38"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="31"/>
+      <c r="R6" s="38"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="31"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1647,29 +1647,29 @@
     </row>
     <row r="7" spans="1:26" ht="61.5" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="33"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="31"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="31"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="31"/>
+      <c r="P7" s="38"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="31"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="31"/>
+      <c r="T7" s="38"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1699,7 +1699,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1735,7 +1737,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1771,7 +1775,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1807,7 +1813,9 @@
       <c r="I11" s="21"/>
       <c r="J11" s="20"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="6"/>
       <c r="O11" s="11"/>
@@ -1843,7 +1851,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -1879,7 +1889,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -3427,12 +3439,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3440,6 +3446,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T43 P8:P43 R8:R43 L8:L43 N8:N43">
